--- a/demo.xlsx
+++ b/demo.xlsx
@@ -54,7 +54,7 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>张五</t>
+    <t>王五</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1197,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="张三" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+  <si>
+    <t>序号</t>
+  </si>
   <si>
     <t>客 户 名 称</t>
   </si>
@@ -30,7 +33,7 @@
     <t>其他</t>
   </si>
   <si>
-    <t>abc</t>
+    <t>abc1</t>
   </si>
   <si>
     <t>123@abc</t>
@@ -39,22 +42,31 @@
     <t>张三</t>
   </si>
   <si>
-    <t>efg</t>
-  </si>
-  <si>
-    <t>456@efg</t>
-  </si>
-  <si>
-    <t>333@abc</t>
+    <t>abc2</t>
+  </si>
+  <si>
+    <t>456@abc</t>
+  </si>
+  <si>
+    <t>abc3</t>
+  </si>
+  <si>
+    <t>789@abc</t>
   </si>
   <si>
     <t>李四</t>
   </si>
   <si>
-    <t>xyz</t>
+    <t>abc4</t>
+  </si>
+  <si>
+    <t>123@abc4</t>
   </si>
   <si>
     <t>王五</t>
+  </si>
+  <si>
+    <t>987@abc</t>
   </si>
 </sst>
 </file>
@@ -1058,19 +1070,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:4">
+    <row r="1" ht="18.75" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,57 +1092,87 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="E5" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="123@abc" tooltip="mailto:123@abc"/>
-    <hyperlink ref="B3" r:id="rId2" display="456@efg"/>
-    <hyperlink ref="B4" r:id="rId3" display="333@abc"/>
+    <hyperlink ref="C2" r:id="rId1" display="123@abc" tooltip="mailto:123@abc"/>
+    <hyperlink ref="C3" r:id="rId2" display="456@abc" tooltip="mailto:456@abc"/>
+    <hyperlink ref="C4" r:id="rId3" display="789@abc" tooltip="mailto:789@abc"/>
+    <hyperlink ref="C5" r:id="rId1" display="123@abc" tooltip="mailto:123@abc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1141,19 +1183,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:4">
+    <row r="1" ht="18.75" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,27 +1205,51 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="123@abc"/>
+    <hyperlink ref="C2" r:id="rId1" display="123@abc" tooltip="mailto:123@abc"/>
+    <hyperlink ref="C3" r:id="rId2" display="123@abc4" tooltip="mailto:123@abc4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1194,15 +1260,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" ht="37.5" spans="1:4">
+    <row r="1" ht="37.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,27 +1278,51 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="333@abc"/>
+    <hyperlink ref="C3" r:id="rId1" display="987@abc" tooltip="mailto:987@abc"/>
+    <hyperlink ref="C2" r:id="rId2" display="123@abc" tooltip="mailto:123@abc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="14805" windowHeight="8490" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="张三" sheetId="1" r:id="rId1"/>
@@ -16,42 +16,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>客 户 名 称</t>
-  </si>
-  <si>
-    <t>邮  箱</t>
-  </si>
-  <si>
-    <t>跟 单 员</t>
-  </si>
-  <si>
-    <t>其他</t>
+    <t>公  司  名  称</t>
+  </si>
+  <si>
+    <t>联  系  人</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>国家/城市</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>跟单业务员</t>
+  </si>
+  <si>
+    <t>ABC1</t>
+  </si>
+  <si>
+    <t>123@abc</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>abc2</t>
+  </si>
+  <si>
+    <t>456@abc</t>
+  </si>
+  <si>
+    <t>abc3</t>
+  </si>
+  <si>
+    <t>789@abc</t>
   </si>
   <si>
     <t>abc1</t>
   </si>
   <si>
-    <t>123@abc</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>abc2</t>
-  </si>
-  <si>
-    <t>456@abc</t>
-  </si>
-  <si>
-    <t>abc3</t>
-  </si>
-  <si>
-    <t>789@abc</t>
+    <t>abC1</t>
   </si>
   <si>
     <t>李四</t>
@@ -61,6 +73,9 @@
   </si>
   <si>
     <t>123@abc4</t>
+  </si>
+  <si>
+    <t>Abc1</t>
   </si>
   <si>
     <t>王五</t>
@@ -709,14 +724,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
@@ -1070,19 +1082,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="2" max="3" width="23" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:5">
+    <row r="1" ht="37.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,84 +1107,86 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="123@abc" tooltip="mailto:123@abc"/>
-    <hyperlink ref="C3" r:id="rId2" display="456@abc" tooltip="mailto:456@abc"/>
-    <hyperlink ref="C4" r:id="rId3" display="789@abc" tooltip="mailto:789@abc"/>
-    <hyperlink ref="C5" r:id="rId1" display="123@abc" tooltip="mailto:123@abc"/>
+    <hyperlink ref="D2" r:id="rId1" display="123@abc" tooltip="mailto:123@abc"/>
+    <hyperlink ref="D3" r:id="rId2" display="456@abc" tooltip="mailto:456@abc"/>
+    <hyperlink ref="D4" r:id="rId3" display="789@abc" tooltip="mailto:789@abc"/>
+    <hyperlink ref="D5" r:id="rId1" display="123@abc" tooltip="mailto:123@abc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1183,19 +1197,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:5">
+    <row r="1" ht="37.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1208,48 +1222,52 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="123@abc" tooltip="mailto:123@abc"/>
-    <hyperlink ref="C3" r:id="rId2" display="123@abc4" tooltip="mailto:123@abc4"/>
+    <hyperlink ref="D2" r:id="rId1" display="123@abc" tooltip="mailto:123@abc"/>
+    <hyperlink ref="D3" r:id="rId2" display="123@abc4" tooltip="mailto:123@abc4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1260,15 +1278,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" ht="37.5" spans="1:5">
+    <row r="1" ht="37.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,48 +1299,52 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="987@abc" tooltip="mailto:987@abc"/>
-    <hyperlink ref="C2" r:id="rId2" display="123@abc" tooltip="mailto:123@abc"/>
+    <hyperlink ref="D3" r:id="rId1" display="987@abc" tooltip="mailto:987@abc"/>
+    <hyperlink ref="D2" r:id="rId2" display="123@abc" tooltip="mailto:123@abc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
